--- a/02_Proyecto/03_CasoPruebas/Matriz Casos de Prueba.xlsx
+++ b/02_Proyecto/03_CasoPruebas/Matriz Casos de Prueba.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\2567_G3_ACSW\02_Proyecto\03_CasoPruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB45192A-BC68-4196-B1B8-D658CBA74F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620902F8-CE5E-4235-983E-44F219FC8F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -545,6 +545,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -554,13 +561,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1159,6 +1159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A5:C122"/>
   <sheetViews>
@@ -1180,10 +1181,10 @@
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1246,7 +1247,7 @@
       <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="15"/>
     </row>
     <row r="14" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -1255,7 +1256,7 @@
       <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1264,7 +1265,7 @@
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1273,14 +1274,14 @@
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -1345,7 +1346,7 @@
       <c r="B24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -1354,7 +1355,7 @@
       <c r="B25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -1363,7 +1364,7 @@
       <c r="B26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="14"/>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -1376,10 +1377,10 @@
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="13"/>
     </row>
     <row r="30" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -1444,7 +1445,7 @@
       <c r="B36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="12"/>
+      <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -1453,7 +1454,7 @@
       <c r="B37" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="13"/>
+      <c r="C37" s="16"/>
     </row>
     <row r="38" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -1462,7 +1463,7 @@
       <c r="B38" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="13"/>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
@@ -1471,7 +1472,7 @@
       <c r="B39" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="13"/>
+      <c r="C39" s="16"/>
     </row>
     <row r="40" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
@@ -1480,7 +1481,7 @@
       <c r="B40" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="13"/>
+      <c r="C40" s="16"/>
     </row>
     <row r="41" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
@@ -1489,7 +1490,7 @@
       <c r="B41" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="13"/>
+      <c r="C41" s="16"/>
     </row>
     <row r="42" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
@@ -1498,7 +1499,7 @@
       <c r="B42" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="13"/>
+      <c r="C42" s="16"/>
     </row>
     <row r="43" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
@@ -1507,13 +1508,13 @@
       <c r="B43" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="14"/>
+      <c r="C43" s="17"/>
     </row>
     <row r="44" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="18"/>
+      <c r="B44" s="13"/>
     </row>
     <row r="45" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
@@ -1578,7 +1579,7 @@
       <c r="B51" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="12"/>
+      <c r="C51" s="15"/>
     </row>
     <row r="52" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
@@ -1587,7 +1588,7 @@
       <c r="B52" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="13"/>
+      <c r="C52" s="16"/>
     </row>
     <row r="53" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
@@ -1596,7 +1597,7 @@
       <c r="B53" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="13"/>
+      <c r="C53" s="16"/>
     </row>
     <row r="54" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
@@ -1605,7 +1606,7 @@
       <c r="B54" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="13"/>
+      <c r="C54" s="16"/>
     </row>
     <row r="55" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
@@ -1614,7 +1615,7 @@
       <c r="B55" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="13"/>
+      <c r="C55" s="16"/>
     </row>
     <row r="56" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
@@ -1623,7 +1624,7 @@
       <c r="B56" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="13"/>
+      <c r="C56" s="16"/>
     </row>
     <row r="57" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
@@ -1632,7 +1633,7 @@
       <c r="B57" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="13"/>
+      <c r="C57" s="16"/>
     </row>
     <row r="58" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
@@ -1641,19 +1642,19 @@
       <c r="B58" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="14"/>
+      <c r="C58" s="17"/>
     </row>
     <row r="59" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="18"/>
+      <c r="B59" s="13"/>
     </row>
     <row r="60" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B60" s="18"/>
+      <c r="B60" s="13"/>
     </row>
     <row r="61" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
@@ -1718,7 +1719,7 @@
       <c r="B67" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="12"/>
+      <c r="C67" s="15"/>
     </row>
     <row r="68" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
@@ -1727,7 +1728,7 @@
       <c r="B68" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="13"/>
+      <c r="C68" s="16"/>
     </row>
     <row r="69" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
@@ -1736,7 +1737,7 @@
       <c r="B69" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="13"/>
+      <c r="C69" s="16"/>
     </row>
     <row r="70" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
@@ -1745,7 +1746,7 @@
       <c r="B70" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="13"/>
+      <c r="C70" s="16"/>
     </row>
     <row r="71" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
@@ -1754,7 +1755,7 @@
       <c r="B71" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C71" s="13"/>
+      <c r="C71" s="16"/>
     </row>
     <row r="72" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
@@ -1763,7 +1764,7 @@
       <c r="B72" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C72" s="13"/>
+      <c r="C72" s="16"/>
     </row>
     <row r="73" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
@@ -1772,7 +1773,7 @@
       <c r="B73" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C73" s="13"/>
+      <c r="C73" s="16"/>
     </row>
     <row r="74" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
@@ -1781,7 +1782,7 @@
       <c r="B74" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C74" s="13"/>
+      <c r="C74" s="16"/>
     </row>
     <row r="75" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
@@ -1790,13 +1791,13 @@
       <c r="B75" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C75" s="14"/>
+      <c r="C75" s="17"/>
     </row>
     <row r="76" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B76" s="18"/>
+      <c r="B76" s="13"/>
     </row>
     <row r="77" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
@@ -1861,7 +1862,7 @@
       <c r="B83" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C83" s="12"/>
+      <c r="C83" s="15"/>
     </row>
     <row r="84" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -1870,7 +1871,7 @@
       <c r="B84" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="13"/>
+      <c r="C84" s="16"/>
     </row>
     <row r="85" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -1879,7 +1880,7 @@
       <c r="B85" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C85" s="13"/>
+      <c r="C85" s="16"/>
     </row>
     <row r="86" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -1888,7 +1889,7 @@
       <c r="B86" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C86" s="13"/>
+      <c r="C86" s="16"/>
     </row>
     <row r="87" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
@@ -1897,7 +1898,7 @@
       <c r="B87" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C87" s="13"/>
+      <c r="C87" s="16"/>
     </row>
     <row r="88" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
@@ -1906,7 +1907,7 @@
       <c r="B88" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C88" s="13"/>
+      <c r="C88" s="16"/>
     </row>
     <row r="89" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
@@ -1915,7 +1916,7 @@
       <c r="B89" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C89" s="13"/>
+      <c r="C89" s="16"/>
     </row>
     <row r="90" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
@@ -1924,7 +1925,7 @@
       <c r="B90" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C90" s="13"/>
+      <c r="C90" s="16"/>
     </row>
     <row r="91" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
@@ -1933,19 +1934,19 @@
       <c r="B91" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C91" s="14"/>
+      <c r="C91" s="17"/>
     </row>
     <row r="92" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="20" t="s">
+      <c r="A92" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B92" s="18"/>
+      <c r="B92" s="13"/>
     </row>
     <row r="93" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="19" t="s">
+      <c r="A93" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B93" s="18"/>
+      <c r="B93" s="13"/>
     </row>
     <row r="94" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
@@ -2010,7 +2011,7 @@
       <c r="B100" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="12"/>
+      <c r="C100" s="15"/>
     </row>
     <row r="101" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
@@ -2019,7 +2020,7 @@
       <c r="B101" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="13"/>
+      <c r="C101" s="16"/>
     </row>
     <row r="102" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
@@ -2028,7 +2029,7 @@
       <c r="B102" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C102" s="13"/>
+      <c r="C102" s="16"/>
     </row>
     <row r="103" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
@@ -2037,7 +2038,7 @@
       <c r="B103" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C103" s="13"/>
+      <c r="C103" s="16"/>
     </row>
     <row r="104" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
@@ -2046,7 +2047,7 @@
       <c r="B104" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C104" s="13"/>
+      <c r="C104" s="16"/>
     </row>
     <row r="105" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
@@ -2055,7 +2056,7 @@
       <c r="B105" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C105" s="13"/>
+      <c r="C105" s="16"/>
     </row>
     <row r="106" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
@@ -2064,7 +2065,7 @@
       <c r="B106" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C106" s="13"/>
+      <c r="C106" s="16"/>
     </row>
     <row r="107" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
@@ -2073,13 +2074,13 @@
       <c r="B107" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C107" s="14"/>
+      <c r="C107" s="17"/>
     </row>
     <row r="108" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="19" t="s">
+      <c r="A108" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B108" s="18"/>
+      <c r="B108" s="13"/>
     </row>
     <row r="109" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
@@ -2144,7 +2145,7 @@
       <c r="B115" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C115" s="12"/>
+      <c r="C115" s="15"/>
     </row>
     <row r="116" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
@@ -2153,7 +2154,7 @@
       <c r="B116" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C116" s="13"/>
+      <c r="C116" s="16"/>
     </row>
     <row r="117" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
@@ -2162,7 +2163,7 @@
       <c r="B117" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C117" s="13"/>
+      <c r="C117" s="16"/>
     </row>
     <row r="118" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
@@ -2171,7 +2172,7 @@
       <c r="B118" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C118" s="13"/>
+      <c r="C118" s="16"/>
     </row>
     <row r="119" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
@@ -2180,7 +2181,7 @@
       <c r="B119" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C119" s="13"/>
+      <c r="C119" s="16"/>
     </row>
     <row r="120" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
@@ -2189,7 +2190,7 @@
       <c r="B120" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C120" s="13"/>
+      <c r="C120" s="16"/>
     </row>
     <row r="121" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
@@ -2198,7 +2199,7 @@
       <c r="B121" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C121" s="13"/>
+      <c r="C121" s="16"/>
     </row>
     <row r="122" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
@@ -2207,15 +2208,10 @@
       <c r="B122" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C122" s="14"/>
+      <c r="C122" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C115:C122"/>
-    <mergeCell ref="C100:C107"/>
     <mergeCell ref="C83:C91"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A6:B6"/>
@@ -2229,8 +2225,14 @@
     <mergeCell ref="C51:C58"/>
     <mergeCell ref="C36:C43"/>
     <mergeCell ref="C24:C26"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C115:C122"/>
+    <mergeCell ref="C100:C107"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>